--- a/PCAcombined/PCAcombined_predicted_factors_matrix_12.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1378681696993312</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.1137453216976939</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08788515501360458</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06124610119613255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03438023016018373</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0076271473326705</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.01880025951034026</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.04476986883841247</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.07020236842232241</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.09505311441098258</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1193000612232233</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1429356910613234</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.1659616426017785</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.1883851693693975</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2102168329847766</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2314690229791418</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2521550242495105</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2722884431493857</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2918828653415056</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3109516611027184</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.3295078826603879</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.3475642175649411</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.3651329750403624</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.3822260907854639</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.398855141263356</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.415031362101966</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.4307656675050795</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.4460686689929138</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.4609506926558812</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.4754217946149693</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.4894917746686131</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.503170188254814</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5164663569233046</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5293893775310198</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5419481303665464</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.5541512863888555</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.5660073137404704</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.5775244836695079</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.5887108759710914</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.5995743840376381</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6101227195896094</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6203634171434381</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6303038382612934</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.05645844580775318</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.04158402244292202</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03249807784218667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02735535215733403</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02489703015168114</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0242668691647741</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0248800454449822</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02633482510059616</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.02835371581488307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03074414025777663</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.03337196100370446</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.03614350931187185</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.03899329011400016</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.04187551137046618</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.04475821284910346</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0476191755461247</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0504430590900134</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05321939085954198</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.05594114872850657</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.05860375929007713</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.06120438793246678</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06374143457869384</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.06621417476788238</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.06862250371246095</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07096675348599636</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07324756225868417</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07546578064978647</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.07762240459883929</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.07971852721650349</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.08175530424122711</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08373392926399909</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.08565561597559422</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08752158546871182</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.08933305718270584</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09109124247567657</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.09279734009310713</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.09445253300626301</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09605798624018699</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.09761484541666346</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.09912423581351439</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1005872617964727</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1020050065195122</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.1033785318181589</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2035921533338885</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1379004805395582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.09277173577439883</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.06185774877321868</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.04072493614641355</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.0263093772406809</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.01650217844778858</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.009854343032873405</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.005371185061720896</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.002370265723335826</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.0003835574119733357</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0009098215228193021</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001729809581162695</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.002227117948511354</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.002504992287235043</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002634139809817069</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002662965757807958</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002624591927276535</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002541668116523307</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002429670114819547</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002299160022039968</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.002157335199075424</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.002009089592849139</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.001857740839258668</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001705528310785747</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001553954200799744</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001404017059905965</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.001256371653400283</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.00111143835111514</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.0009694779555152777</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0008306428660651592</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.000695012045838735</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0005626149040927361</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0004334475967260987</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0003074841421256071</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0001846839934752805</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6.499719030070251e-05</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-5.163214270860537e-05</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.0001652634244917858</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.0002759580151756775</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.0003837781372795735</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.0004887861532336881</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.0005910440850404957</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.09978795922405287</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.06925667730222841</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04855702193504698</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03434276063489765</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02446713830253194</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0175205361648558</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01256356358259778</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00896427588734419</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.006294978005686719</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.004265073081074194</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.002676606243337621</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.001394497651793004</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0003264614149853181</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.0005906087861888039</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.001399900373927055</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.00213099481262388</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.002804177081809457</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.003433379946519325</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.004028196359121188</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.004595255090353151</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.005139160965081664</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.005663137309738489</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.006169464723414364</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.00665978056767816</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007135283244669814</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.007596871421480891</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.008045238834057526</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.008480938781914429</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.008904427959650895</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.009316096214754403</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.009716286729979037</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01010530969842066</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01048345158199994</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01085098137656164</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.0112081548512426</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01155521741925159</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01189240608562997</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01221995077370766</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01253807523415828</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.0128469976742337</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01314693119978173</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01343808413228382</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01372066024256809</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.05711279071006577</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.03720853884615595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02417002262519037</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01544019453148512</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.009548202491932143</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.005564393244579833</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.002875370143320481</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.001068644999174674</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0001356090310491199</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0009280699171894547</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.001438999532491729</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.001757531073726753</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.001944723188615606</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.002042436024389069</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.002079383816995164</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.002075270324429888</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.002043618466818503</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.001993708648828317</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001931907701083046</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001862580679829427</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001788716838274742</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001712359590122028</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.001634901971144763</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001557289752895062</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001480161120560175</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001403942756811648</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001328915955834382</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001255262126745126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.00118309411835023</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001112477787057907</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.001043446848936264</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0009760131078703145</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0009101734993754057</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0008459149409243741</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0007832176710329283</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0007220575469240929</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0006624076244307361</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.00060423924312169</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0005475227703523376</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0004922281101710207</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0004383250501160335</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0003857834962856703</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0003345736314145206</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.03981096849599108</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.02679137277431955</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0179212824065749</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01191342000105694</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.007862084538573174</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005143964808166445</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003333388742281175</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002140368292250795</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001367430171527566</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0008800530715386713</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0005865481273215341</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0004243889839087862</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0003509217308382011</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0003370453113508362</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0003629077372525926</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0004149720322498064</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0004840142302437037</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0005637564360902374</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0006499330613660742</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0007396527783093863</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.0008309624789381534</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0009225492825198657</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001013536908165356</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001103346559594947</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.00119160191312682</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.00127806425320866</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001362588211741316</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.001445091584732303</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001525534763652222</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001603906730674146</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001680215532721636</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.001754481809744976</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001826734404333624</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.00189700738858673</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001965338055144341</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.002031765563512049</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.002096330031211194</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002159071926496001</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002220031665197901</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002279249345493666</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002336764575671272</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002392616364442889</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.002446843053198294</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.006356436495052006</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.00366548757518634</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.002051480692239492</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001079672318617521</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0004812780087859</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0001016718883064748</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.00014731561139917</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0003166287000264247</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0004363247218380164</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0005245351409910961</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.0005924229172579892</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.000646981419794413</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0006926541227459393</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0007322956128100499</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.0007677551331181086</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0008002381608904431</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0008305342596216961</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.0008591626131350292</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0008864659479352189</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.000912671605695902</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.0009379314579150726</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.0009623480705554211</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.0009859918753045975</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.00100891243369044</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.001031145812089292</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.001052719394406749</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001073655007767265</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001093970939785446</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001113683229953156</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001132806487872178</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001151354404913391</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.001169340068794704</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.001186776152709223</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.001203675025593951</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.001220048813660719</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.001235909432439403</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001251268601555065</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.001266137849820932</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.001280528515322468</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.0012944517432547</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.001307918483102638</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.001320939486025932</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.001333525302859356</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.02253879122512771</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.013004795187025</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.007017384927720862</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003173700595807131</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0006834673198041329</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.0009291667856387239</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.001963574033836871</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.002613418304682144</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.003006187915657256</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.003226735833343574</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.003331934231323609</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.003360071734272335</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.003336997793345432</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.003280192090119088</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.003201482947459468</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.003108873894609887</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.003007775916871058</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.002901841071388784</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.002793527499572688</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.002684482870420206</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.002575804810963679</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.002468217865493667</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.00236219375547384</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.002258033100076787</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.002155920931615488</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.002055964390630479</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.001958218303597445</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.001862702523304008</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.001769413671857913</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.001678333082355636</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.001589432160805178</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.001502675998813729</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.001418025801409334</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.001335440513245991</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.001254877903233555</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.001176295283899077</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.001099649984859517</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.001024899661160283</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.000952002491020293</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.000880917299754158</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.0008116036346327137</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.0007440218073005748</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.0006781329148850626</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.003671979986352529</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.003025451323313913</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.002255041862381445</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001624228200651532</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00117259299477974</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0008750069618900984</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0006946456071238605</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0005988107578016013</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0005621963599535967</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0005663064201709401</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.000597993400305085</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0006480489224060791</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0007100780215613383</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0007796631826207386</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0008537646147137444</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0009302976589023325</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.001007837935342036</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.001085416764166738</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.001162379673692698</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.001238288715502676</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.00131285508545566</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.001385892665847036</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.001457285993414521</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.001526968169177911</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.001594905619084007</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.001661087576272174</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0017255188186819</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.001788214652218981</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.00184919744386023</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.00190849422526537</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0019661350363093</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.002022151780413167</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.002076577434144066</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.002129445502220457</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.002180789642643135</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.002230643409823656</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.002279040079614307</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.002326012531200063</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.002371593168485568</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.002415813868906552</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.002458705951280174</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.00250030015687114</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.002540626639593439</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.0004170253435745885</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.0002039179342189061</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0002176500139099494</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0002564765654975199</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0002787951657675749</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.0002817783305830702</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.0002701162928761444</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.0002486573643009495</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.0002210705707744983</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.0001898934050301781</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.0001568139681669351</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.0001229283736996093</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-8.893289471273957e-05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-5.525861837797652e-05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-2.216330101004307e-05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.020693517399767e-05</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.177665447603271e-05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.251423976795539e-05</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0001024144786513712</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0001314874368131716</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0001597514712940598</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.000187228940252442</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0002139436471807584</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.0002399193840255372</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0002651791574701945</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.000289744829409862</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.000313636999941473</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0003368750250585309</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0003594771027607578</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0003814603880095391</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0004028411138121248</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0004236347062796524</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.000443855887842843</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0004635187665843017</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0004826369117219909</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0005012234163555074</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0005192909490546968</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0005368517959735313</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0005539178951082188</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0005705008641407817</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.0005866120231182912</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0006022624130054264</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0006174628109683763</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>0.0003920186255950576</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.0002739798779323111</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0001985589625090884</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0001474531702082054</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.000111756023639764</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.630448216632658e-05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.783472568774261e-05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.418919660406115e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.390714955524871e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.598634877618521e-05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.973367037809284e-05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.466726231328415e-05</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.045085350821706e-05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.684901352786479e-05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.369642036292006e-05</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.087663528731135e-05</v>
+      </c>
+      <c r="U12" t="n">
+        <v>8.30738792362218e-06</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.930344798127173e-06</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.703977800218359e-06</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.59858239164405e-06</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-4.072096474391028e-07</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-2.328876135688656e-06</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-4.177723347608608e-06</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-5.962096244403734e-06</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-7.688232187915672e-06</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-9.360864306491024e-06</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-1.09836487209202e-05</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-1.255946761482014e-05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-1.409064465603486e-05</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-1.557909838808265e-05</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-1.702645168484466e-05</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-1.843411000340619e-05</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-1.980331745312481e-05</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-2.113519705522139e-05</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-2.243077973044318e-05</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-2.369102521809119e-05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-2.491683722964315e-05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-2.610907445649227e-05</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-2.726855860726009e-05</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-2.839608030408262e-05</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-2.949240343335966e-05</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-3.055826838445175e-05</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-3.159439448307829e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -652,6 +2164,132 @@
       </c>
       <c r="E13" t="n">
         <v>-0.0001541044169130738</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-9.130040930165386e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-5.503105076404155e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3.433976990104216e-05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.266137020678593e-05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.627319755846258e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1.30490436526272e-05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.174306995044061e-05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.160568414603749e-05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1.217650276160706e-05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-1.316907176711662e-05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-1.44041002175164e-05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-1.576939838081235e-05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-1.719517841573295e-05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-1.863854122605833e-05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-2.007362162411875e-05</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-2.148529166462807e-05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-2.28651313705224e-05</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-2.42088553994565e-05</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-2.551467779897444e-05</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-2.678228127077181e-05</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-2.801217502392499e-05</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-2.920530115868581e-05</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-3.036279881725634e-05</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-3.148586744507683e-05</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-3.257569142047448e-05</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-3.363340197050308e-05</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-3.466006111506183e-05</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-3.565665812519866e-05</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-3.662411263331552e-05</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-3.756328089734191e-05</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-3.847496316819471e-05</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-3.935991103711585e-05</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-4.021883419905724e-05</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-4.105240637799295e-05</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-4.186127036873763e-05</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-4.264604223140733e-05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-4.34073147363262e-05</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-4.414566015699781e-05</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-4.486163252858415e-05</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-4.555576945903422e-05</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-4.622859358672581e-05</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-4.688061375376521e-05</v>
       </c>
     </row>
   </sheetData>
